--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPFarmTest\gebtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,10 +384,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1900</v>
+        <v>19000</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
